--- a/Model/Modelos-v1/resultados.xlsx
+++ b/Model/Modelos-v1/resultados.xlsx
@@ -1,37 +1,144 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alonso\PycharmProjects\TFG\Model\Modelos-v1\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53196AF9-D54C-4FE2-ABAF-E37EC8BA2D6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="32">
+  <si>
+    <t>modelo</t>
+  </si>
+  <si>
+    <t>conv_filters_1</t>
+  </si>
+  <si>
+    <t>conv_kernel_size</t>
+  </si>
+  <si>
+    <t>strides</t>
+  </si>
+  <si>
+    <t>pool_size</t>
+  </si>
+  <si>
+    <t>conv_filters_2</t>
+  </si>
+  <si>
+    <t>conv_filters_3</t>
+  </si>
+  <si>
+    <t>conv_activation</t>
+  </si>
+  <si>
+    <t>rnn</t>
+  </si>
+  <si>
+    <t>rnn_units</t>
+  </si>
+  <si>
+    <t>rnn_activation</t>
+  </si>
+  <si>
+    <t>optimizer</t>
+  </si>
+  <si>
+    <t>epochs</t>
+  </si>
+  <si>
+    <t>accuracy-Test-1</t>
+  </si>
+  <si>
+    <t>precision-Test-1</t>
+  </si>
+  <si>
+    <t>recall-Test-1</t>
+  </si>
+  <si>
+    <t>f1-Test-1</t>
+  </si>
+  <si>
+    <t>f2-Test-1</t>
+  </si>
+  <si>
+    <t>accuracy-Test-2</t>
+  </si>
+  <si>
+    <t>precision-Test-2</t>
+  </si>
+  <si>
+    <t>recall-Test-2</t>
+  </si>
+  <si>
+    <t>f1-Test-2</t>
+  </si>
+  <si>
+    <t>f2-Test-2</t>
+  </si>
+  <si>
+    <t>accuracy-Test-3</t>
+  </si>
+  <si>
+    <t>precision-Test-3</t>
+  </si>
+  <si>
+    <t>recall-Test-3</t>
+  </si>
+  <si>
+    <t>f1-Test-3</t>
+  </si>
+  <si>
+    <t>f2-Test-3</t>
+  </si>
+  <si>
+    <t>relu</t>
+  </si>
+  <si>
+    <t>LSTM</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>adam</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +153,43 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,412 +477,1094 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:J11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:AB11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="X15" sqref="X15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="5.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="7.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="18" width="12" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="12" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="28" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>modelo</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>conv_filters_1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>conv_kernel_size</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>strides</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>pool_size</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>conv_filters_2</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>lstm_units</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>epochs</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>loss</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>accuracy</t>
-        </is>
+    <row r="1" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>27</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2" t="n">
+      <c r="B2">
         <v>8</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2" t="n">
-        <v>2</v>
-      </c>
-      <c r="E2" t="n">
-        <v>2</v>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G2" t="n">
+      <c r="D2">
+        <v>2</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+      <c r="F2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" t="s">
+        <v>30</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2">
         <v>16</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L2" t="s">
+        <v>31</v>
+      </c>
+      <c r="M2">
         <v>10</v>
       </c>
-      <c r="I2" t="n">
-        <v>0.529301643371582</v>
-      </c>
-      <c r="J2" t="n">
-        <v>0.8711656332015991</v>
+      <c r="N2">
+        <v>0.87730062007904053</v>
+      </c>
+      <c r="O2">
+        <v>0.95918367346938771</v>
+      </c>
+      <c r="P2">
+        <v>0.72307692307692306</v>
+      </c>
+      <c r="Q2">
+        <v>0.82456140350877183</v>
+      </c>
+      <c r="R2">
+        <v>0.76051779935275077</v>
+      </c>
+      <c r="S2">
+        <v>0.88967972993850708</v>
+      </c>
+      <c r="T2">
+        <v>0.90350877192982459</v>
+      </c>
+      <c r="U2">
+        <v>0.83739837398373984</v>
+      </c>
+      <c r="V2">
+        <v>0.86919831223628696</v>
+      </c>
+      <c r="W2">
+        <v>0.84983498349834985</v>
+      </c>
+      <c r="X2">
+        <v>0.6144067645072937</v>
+      </c>
+      <c r="Y2">
+        <v>0.609375</v>
+      </c>
+      <c r="Z2">
+        <v>0.37142857142857139</v>
+      </c>
+      <c r="AA2">
+        <v>0.46153846153846151</v>
+      </c>
+      <c r="AB2">
+        <v>0.40289256198347112</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="3" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3">
         <v>8</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D3" t="n">
-        <v>2</v>
-      </c>
-      <c r="E3" t="n">
-        <v>2</v>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G3" t="n">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
+      </c>
+      <c r="F3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>29</v>
+      </c>
+      <c r="J3">
         <v>32</v>
       </c>
-      <c r="H3" t="n">
+      <c r="K3" t="s">
+        <v>28</v>
+      </c>
+      <c r="L3" t="s">
+        <v>31</v>
+      </c>
+      <c r="M3">
         <v>10</v>
       </c>
-      <c r="I3" t="n">
-        <v>0.5361867547035217</v>
-      </c>
-      <c r="J3" t="n">
-        <v>0.8588957190513611</v>
+      <c r="N3">
+        <v>0.86503064632415771</v>
+      </c>
+      <c r="O3">
+        <v>0.93877551020408168</v>
+      </c>
+      <c r="P3">
+        <v>0.70769230769230773</v>
+      </c>
+      <c r="Q3">
+        <v>0.80701754385964919</v>
+      </c>
+      <c r="R3">
+        <v>0.74433656957928807</v>
+      </c>
+      <c r="S3">
+        <v>0.89679718017578125</v>
+      </c>
+      <c r="T3">
+        <v>0.97</v>
+      </c>
+      <c r="U3">
+        <v>0.78861788617886175</v>
+      </c>
+      <c r="V3">
+        <v>0.8699551569506726</v>
+      </c>
+      <c r="W3">
+        <v>0.8192567567567568</v>
+      </c>
+      <c r="X3">
+        <v>0.60593217611312866</v>
+      </c>
+      <c r="Y3">
+        <v>0.6</v>
+      </c>
+      <c r="Z3">
+        <v>0.34285714285714292</v>
+      </c>
+      <c r="AA3">
+        <v>0.43636363636363629</v>
+      </c>
+      <c r="AB3">
+        <v>0.375</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
         <v>8</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" t="n">
-        <v>2</v>
-      </c>
-      <c r="E4" t="n">
-        <v>2</v>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G4" t="n">
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="F4" t="s">
+        <v>30</v>
+      </c>
+      <c r="G4" t="s">
+        <v>30</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4">
         <v>64</v>
       </c>
-      <c r="H4" t="n">
+      <c r="K4" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4">
         <v>10</v>
       </c>
-      <c r="I4" t="n">
-        <v>0.7628453969955444</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0.8159509301185608</v>
+      <c r="N4">
+        <v>0.8220859169960022</v>
+      </c>
+      <c r="O4">
+        <v>0.9285714285714286</v>
+      </c>
+      <c r="P4">
+        <v>0.6</v>
+      </c>
+      <c r="Q4">
+        <v>0.72897196261682251</v>
+      </c>
+      <c r="R4">
+        <v>0.64569536423841067</v>
+      </c>
+      <c r="S4">
+        <v>0.82206404209136963</v>
+      </c>
+      <c r="T4">
+        <v>0.96202531645569622</v>
+      </c>
+      <c r="U4">
+        <v>0.61788617886178865</v>
+      </c>
+      <c r="V4">
+        <v>0.75247524752475248</v>
+      </c>
+      <c r="W4">
+        <v>0.66549912434325742</v>
+      </c>
+      <c r="X4">
+        <v>0.64830505847930908</v>
+      </c>
+      <c r="Y4">
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="Z4">
+        <v>0.43809523809523809</v>
+      </c>
+      <c r="AA4">
+        <v>0.52571428571428558</v>
+      </c>
+      <c r="AB4">
+        <v>0.46938775510204078</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" t="n">
+      <c r="B5">
         <v>16</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" t="n">
-        <v>2</v>
-      </c>
-      <c r="E5" t="n">
-        <v>2</v>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G5" t="n">
+      <c r="D5">
+        <v>2</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>30</v>
+      </c>
+      <c r="G5" t="s">
+        <v>30</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>29</v>
+      </c>
+      <c r="J5">
         <v>32</v>
       </c>
-      <c r="H5" t="n">
+      <c r="K5" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5">
         <v>10</v>
       </c>
-      <c r="I5" t="n">
-        <v>0.4105826914310455</v>
-      </c>
-      <c r="J5" t="n">
-        <v>0.8588957190513611</v>
+      <c r="N5">
+        <v>0.86503064632415771</v>
+      </c>
+      <c r="O5">
+        <v>0.93877551020408168</v>
+      </c>
+      <c r="P5">
+        <v>0.70769230769230773</v>
+      </c>
+      <c r="Q5">
+        <v>0.80701754385964919</v>
+      </c>
+      <c r="R5">
+        <v>0.74433656957928807</v>
+      </c>
+      <c r="S5">
+        <v>0.87188613414764404</v>
+      </c>
+      <c r="T5">
+        <v>0.8990825688073395</v>
+      </c>
+      <c r="U5">
+        <v>0.7967479674796748</v>
+      </c>
+      <c r="V5">
+        <v>0.84482758620689669</v>
+      </c>
+      <c r="W5">
+        <v>0.815307820299501</v>
+      </c>
+      <c r="X5">
+        <v>0.64830505847930908</v>
+      </c>
+      <c r="Y5">
+        <v>0.65714285714285714</v>
+      </c>
+      <c r="Z5">
+        <v>0.43809523809523809</v>
+      </c>
+      <c r="AA5">
+        <v>0.52571428571428558</v>
+      </c>
+      <c r="AB5">
+        <v>0.46938775510204078</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" t="n">
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" t="n">
+      <c r="B6">
         <v>32</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>3</v>
       </c>
-      <c r="D6" t="n">
-        <v>2</v>
-      </c>
-      <c r="E6" t="n">
-        <v>2</v>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G6" t="n">
+      <c r="D6">
+        <v>2</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>29</v>
+      </c>
+      <c r="J6">
         <v>64</v>
       </c>
-      <c r="H6" t="n">
+      <c r="K6" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" t="s">
+        <v>31</v>
+      </c>
+      <c r="M6">
         <v>10</v>
       </c>
-      <c r="I6" t="n">
-        <v>0.562868595123291</v>
-      </c>
-      <c r="J6" t="n">
-        <v>0.8527607321739197</v>
+      <c r="N6">
+        <v>0.85889571905136108</v>
+      </c>
+      <c r="O6">
+        <v>0.92</v>
+      </c>
+      <c r="P6">
+        <v>0.70769230769230773</v>
+      </c>
+      <c r="Q6">
+        <v>0.8</v>
+      </c>
+      <c r="R6">
+        <v>0.74193548387096786</v>
+      </c>
+      <c r="S6">
+        <v>0.76156586408615112</v>
+      </c>
+      <c r="T6">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="U6">
+        <v>0.52032520325203258</v>
+      </c>
+      <c r="V6">
+        <v>0.65641025641025641</v>
+      </c>
+      <c r="W6">
+        <v>0.56737588652482274</v>
+      </c>
+      <c r="X6">
+        <v>0.68220341205596924</v>
+      </c>
+      <c r="Y6">
+        <v>0.69230769230769229</v>
+      </c>
+      <c r="Z6">
+        <v>0.51428571428571423</v>
+      </c>
+      <c r="AA6">
+        <v>0.5901639344262295</v>
+      </c>
+      <c r="AB6">
+        <v>0.54216867469879515</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" t="n">
+    <row r="7" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A7">
         <v>5</v>
       </c>
-      <c r="B7" t="n">
+      <c r="B7">
         <v>16</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
-        <v>2</v>
-      </c>
-      <c r="E7" t="n">
-        <v>2</v>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
+      <c r="D7">
+        <v>2</v>
+      </c>
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>29</v>
+      </c>
+      <c r="J7">
         <v>32</v>
       </c>
-      <c r="H7" t="n">
+      <c r="K7" t="s">
+        <v>28</v>
+      </c>
+      <c r="L7" t="s">
+        <v>31</v>
+      </c>
+      <c r="M7">
         <v>10</v>
       </c>
-      <c r="I7" t="n">
-        <v>0.3552507162094116</v>
-      </c>
-      <c r="J7" t="n">
-        <v>0.89570552110672</v>
+      <c r="N7">
+        <v>0.90184050798416138</v>
+      </c>
+      <c r="O7">
+        <v>0.88888888888888884</v>
+      </c>
+      <c r="P7">
+        <v>0.86153846153846159</v>
+      </c>
+      <c r="Q7">
+        <v>0.87500000000000011</v>
+      </c>
+      <c r="R7">
+        <v>0.86687306501547989</v>
+      </c>
+      <c r="S7">
+        <v>0.70106762647628784</v>
+      </c>
+      <c r="T7">
+        <v>0.61142857142857143</v>
+      </c>
+      <c r="U7">
+        <v>0.86991869918699183</v>
+      </c>
+      <c r="V7">
+        <v>0.71812080536912759</v>
+      </c>
+      <c r="W7">
+        <v>0.80209895052473767</v>
+      </c>
+      <c r="X7">
+        <v>0.58474576473236084</v>
+      </c>
+      <c r="Y7">
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="Z7">
+        <v>0.29523809523809519</v>
+      </c>
+      <c r="AA7">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="AB7">
+        <v>0.32631578947368423</v>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" t="n">
+    <row r="8" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" t="n">
+      <c r="B8">
         <v>32</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
-        <v>2</v>
-      </c>
-      <c r="E8" t="n">
-        <v>2</v>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G8" t="n">
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8">
         <v>64</v>
       </c>
-      <c r="H8" t="n">
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M8">
         <v>10</v>
       </c>
-      <c r="I8" t="n">
-        <v>0.5230894684791565</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0.8404908180236816</v>
+      <c r="N8">
+        <v>0.84662574529647827</v>
+      </c>
+      <c r="O8">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="P8">
+        <v>0.70769230769230773</v>
+      </c>
+      <c r="Q8">
+        <v>0.78632478632478631</v>
+      </c>
+      <c r="R8">
+        <v>0.73717948717948723</v>
+      </c>
+      <c r="S8">
+        <v>0.70106762647628784</v>
+      </c>
+      <c r="T8">
+        <v>0.72941176470588232</v>
+      </c>
+      <c r="U8">
+        <v>0.50406504065040647</v>
+      </c>
+      <c r="V8">
+        <v>0.59615384615384615</v>
+      </c>
+      <c r="W8">
+        <v>0.53726169844020799</v>
+      </c>
+      <c r="X8">
+        <v>0.58474576473236084</v>
+      </c>
+      <c r="Y8">
+        <v>0.5636363636363636</v>
+      </c>
+      <c r="Z8">
+        <v>0.29523809523809519</v>
+      </c>
+      <c r="AA8">
+        <v>0.38750000000000001</v>
+      </c>
+      <c r="AB8">
+        <v>0.32631578947368423</v>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" t="n">
+    <row r="9" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" t="n">
+      <c r="B9">
         <v>16</v>
       </c>
-      <c r="C9" t="n">
-        <v>2</v>
-      </c>
-      <c r="D9" t="n">
-        <v>2</v>
-      </c>
-      <c r="E9" t="n">
-        <v>2</v>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
+      <c r="C9">
+        <v>2</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+      <c r="E9">
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>29</v>
+      </c>
+      <c r="J9">
         <v>32</v>
       </c>
-      <c r="H9" t="n">
+      <c r="K9" t="s">
+        <v>28</v>
+      </c>
+      <c r="L9" t="s">
+        <v>31</v>
+      </c>
+      <c r="M9">
         <v>10</v>
       </c>
-      <c r="I9" t="n">
-        <v>0.6442475318908691</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0.8404908180236816</v>
+      <c r="N9">
+        <v>0.84662574529647827</v>
+      </c>
+      <c r="O9">
+        <v>0.88461538461538458</v>
+      </c>
+      <c r="P9">
+        <v>0.70769230769230773</v>
+      </c>
+      <c r="Q9">
+        <v>0.78632478632478631</v>
+      </c>
+      <c r="R9">
+        <v>0.73717948717948723</v>
+      </c>
+      <c r="S9">
+        <v>0.74021351337432861</v>
+      </c>
+      <c r="T9">
+        <v>0.74509803921568629</v>
+      </c>
+      <c r="U9">
+        <v>0.61788617886178865</v>
+      </c>
+      <c r="V9">
+        <v>0.67555555555555558</v>
+      </c>
+      <c r="W9">
+        <v>0.63973063973063971</v>
+      </c>
+      <c r="X9">
+        <v>0.6355932354927063</v>
+      </c>
+      <c r="Y9">
+        <v>0.64179104477611937</v>
+      </c>
+      <c r="Z9">
+        <v>0.40952380952380951</v>
+      </c>
+      <c r="AA9">
+        <v>0.5</v>
+      </c>
+      <c r="AB9">
+        <v>0.44147843942505138</v>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" t="n">
+    <row r="10" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>8</v>
       </c>
-      <c r="B10" t="n">
+      <c r="B10">
         <v>16</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10">
         <v>3</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10">
         <v>4</v>
       </c>
-      <c r="E10" t="n">
-        <v>2</v>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G10" t="n">
+      <c r="E10">
+        <v>2</v>
+      </c>
+      <c r="F10" t="s">
+        <v>30</v>
+      </c>
+      <c r="G10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>29</v>
+      </c>
+      <c r="J10">
         <v>32</v>
       </c>
-      <c r="H10" t="n">
+      <c r="K10" t="s">
+        <v>28</v>
+      </c>
+      <c r="L10" t="s">
+        <v>31</v>
+      </c>
+      <c r="M10">
         <v>10</v>
       </c>
-      <c r="I10" t="n">
-        <v>0.5691900849342346</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0.8282208442687988</v>
+      <c r="N10">
+        <v>0.83435583114624023</v>
+      </c>
+      <c r="O10">
+        <v>0.91304347826086951</v>
+      </c>
+      <c r="P10">
+        <v>0.64615384615384619</v>
+      </c>
+      <c r="Q10">
+        <v>0.7567567567567568</v>
+      </c>
+      <c r="R10">
+        <v>0.68627450980392157</v>
+      </c>
+      <c r="S10">
+        <v>0.87188613414764404</v>
+      </c>
+      <c r="T10">
+        <v>0.81751824817518248</v>
+      </c>
+      <c r="U10">
+        <v>0.91056910569105687</v>
+      </c>
+      <c r="V10">
+        <v>0.86153846153846159</v>
+      </c>
+      <c r="W10">
+        <v>0.89030206677265489</v>
+      </c>
+      <c r="X10">
+        <v>0.6906779408454895</v>
+      </c>
+      <c r="Y10">
+        <v>0.69047619047619047</v>
+      </c>
+      <c r="Z10">
+        <v>0.55238095238095242</v>
+      </c>
+      <c r="AA10">
+        <v>0.61375661375661372</v>
+      </c>
+      <c r="AB10">
+        <v>0.57539682539682546</v>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" t="n">
+    <row r="11" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B11" t="n">
+      <c r="B11">
         <v>32</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11">
         <v>3</v>
       </c>
-      <c r="D11" t="n">
+      <c r="D11">
         <v>1</v>
       </c>
-      <c r="E11" t="n">
-        <v>2</v>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="G11" t="n">
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>30</v>
+      </c>
+      <c r="G11" t="s">
+        <v>30</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J11">
         <v>64</v>
       </c>
-      <c r="H11" t="n">
+      <c r="K11" t="s">
+        <v>28</v>
+      </c>
+      <c r="L11" t="s">
+        <v>31</v>
+      </c>
+      <c r="M11">
         <v>10</v>
       </c>
-      <c r="I11" t="n">
-        <v>0.5771055221557617</v>
-      </c>
-      <c r="J11" t="n">
-        <v>0.8588957190513611</v>
+      <c r="N11">
+        <v>0.86503064632415771</v>
+      </c>
+      <c r="O11">
+        <v>0.93877551020408168</v>
+      </c>
+      <c r="P11">
+        <v>0.70769230769230773</v>
+      </c>
+      <c r="Q11">
+        <v>0.80701754385964919</v>
+      </c>
+      <c r="R11">
+        <v>0.74433656957928807</v>
+      </c>
+      <c r="S11">
+        <v>0.85409253835678101</v>
+      </c>
+      <c r="T11">
+        <v>0.9555555555555556</v>
+      </c>
+      <c r="U11">
+        <v>0.69918699186991873</v>
+      </c>
+      <c r="V11">
+        <v>0.80751173708920188</v>
+      </c>
+      <c r="W11">
+        <v>0.73883161512027473</v>
+      </c>
+      <c r="X11">
+        <v>0.63983052968978882</v>
+      </c>
+      <c r="Y11">
+        <v>0.6470588235294118</v>
+      </c>
+      <c r="Z11">
+        <v>0.41904761904761911</v>
+      </c>
+      <c r="AA11">
+        <v>0.50867052023121395</v>
+      </c>
+      <c r="AB11">
+        <v>0.4508196721311476</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="N2:N11">
+    <cfRule type="colorScale" priority="9">
+      <colorScale>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="0.8"/>
+        <cfvo type="num" val="0.9"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="O2:O11">
+    <cfRule type="colorScale" priority="8">
+      <colorScale>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="0.8"/>
+        <cfvo type="num" val="0.9"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P2:P11">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="0.8"/>
+        <cfvo type="num" val="0.9"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="Q2:Q11">
+    <cfRule type="colorScale" priority="6">
+      <colorScale>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="0.8"/>
+        <cfvo type="num" val="0.9"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="R2:R11">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="0.8"/>
+        <cfvo type="num" val="0.9"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="S2:S11">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="0.8"/>
+        <cfvo type="num" val="0.9"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="T2:T11">
+    <cfRule type="colorScale" priority="3">
+      <colorScale>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="0.8"/>
+        <cfvo type="num" val="0.9"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="U2:U11">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="0.8"/>
+        <cfvo type="num" val="0.9"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="V2:AB11">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="num" val="0.75"/>
+        <cfvo type="num" val="0.8"/>
+        <cfvo type="num" val="0.9"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>